--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课堂记录.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课堂记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26320" windowHeight="15900" activeTab="2"/>
+    <workbookView xWindow="6420" yWindow="460" windowWidth="26320" windowHeight="15900" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PEEP教学特点" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="150">
   <si>
     <t>PEEP correlated to Head Start Outcome Framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,43 @@
     <rPh sb="0" eb="1">
       <t>ge ren ren wu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（能）使用如长度、大小、重量等属性来比较不同物体；如：更长/短，高/矮，重/轻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（能）使用一系列的方法，例如数数，认数（扫一眼就知道），或匹配，来比较两组事物的数量；
+并能使用比较的术语来描述两者的不同，如更多，更少，或相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（能）理解并描述事物的方向、顺序、和位置；如：在前，在后，在上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +1017,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1645,10 +1691,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1659,8 +1705,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1669,8 +1715,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1679,8 +1725,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1689,8 +1735,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1701,8 +1747,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1711,8 +1757,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
@@ -1721,8 +1767,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1731,8 +1777,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1741,8 +1787,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
@@ -1757,10 +1803,10 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1771,8 +1817,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
@@ -1781,8 +1827,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -1791,7 +1837,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1803,7 +1849,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1815,8 +1861,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1827,8 +1873,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
@@ -1843,10 +1889,10 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1857,8 +1903,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
@@ -1867,8 +1913,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
@@ -1877,8 +1923,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
@@ -1887,8 +1933,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
@@ -1897,8 +1943,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1909,8 +1955,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
@@ -1925,10 +1971,10 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1939,8 +1985,8 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
@@ -1949,8 +1995,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
@@ -1959,8 +2005,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
@@ -1992,10 +2038,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B20" zoomScale="117" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="N20" sqref="N20"/>
+      <selection pane="topRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2087,10 +2133,10 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2116,12 +2162,12 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="9"/>
@@ -2137,12 +2183,12 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="9"/>
@@ -2156,8 +2202,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -2173,14 +2219,14 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -2200,12 +2246,12 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2227,12 +2273,12 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -2252,12 +2298,12 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2277,8 +2323,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
@@ -2294,12 +2340,12 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="9"/>
@@ -2326,16 +2372,16 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="9"/>
@@ -2347,8 +2393,8 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
@@ -2364,8 +2410,8 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -2381,15 +2427,15 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
+      <c r="E20" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2402,15 +2448,15 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>21</v>
+      <c r="E21" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2423,15 +2469,15 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>22</v>
+      <c r="E22" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2444,12 +2490,12 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="9"/>
@@ -2474,16 +2520,16 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="9"/>
@@ -2499,12 +2545,12 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="9"/>
@@ -2522,12 +2568,12 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="9"/>
@@ -2539,12 +2585,12 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="9"/>
@@ -2558,12 +2604,12 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="9"/>
@@ -2575,14 +2621,14 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="9"/>
@@ -2596,8 +2642,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
@@ -2626,16 +2672,16 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="9"/>
@@ -2647,12 +2693,12 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="9"/>
@@ -2664,12 +2710,12 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="9"/>
@@ -2689,12 +2735,12 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2722,6 +2768,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2729,7 +2776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
@@ -2841,10 +2888,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2873,8 +2920,8 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
@@ -2897,8 +2944,8 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2919,8 +2966,8 @@
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -2939,8 +2986,8 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2969,8 +3016,8 @@
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
@@ -2999,8 +3046,8 @@
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
@@ -3027,8 +3074,8 @@
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3055,8 +3102,8 @@
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
@@ -3075,8 +3122,8 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
@@ -3113,10 +3160,10 @@
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3141,8 +3188,8 @@
       <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
@@ -3161,8 +3208,8 @@
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -3181,7 +3228,7 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
@@ -3205,7 +3252,7 @@
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -3233,8 +3280,8 @@
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3257,8 +3304,8 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
@@ -3293,10 +3340,10 @@
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -3325,8 +3372,8 @@
       <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
@@ -3355,8 +3402,8 @@
       <c r="O26" s="9"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
@@ -3381,8 +3428,8 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
@@ -3403,8 +3450,8 @@
       <c r="O28" s="9"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
@@ -3427,8 +3474,8 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -3451,8 +3498,8 @@
       <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
@@ -3487,10 +3534,10 @@
       <c r="O32" s="9"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3515,8 +3562,8 @@
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
@@ -3539,8 +3586,8 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
@@ -3567,8 +3614,8 @@
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
@@ -3735,10 +3782,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3765,8 +3812,8 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
@@ -3787,8 +3834,8 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -3807,8 +3854,8 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -3825,8 +3872,8 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3853,8 +3900,8 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +3928,8 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
@@ -3907,8 +3954,8 @@
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3933,8 +3980,8 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
@@ -3951,8 +3998,8 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
@@ -3985,10 +4032,10 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4007,8 +4054,8 @@
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4072,8 @@
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -4043,7 +4090,7 @@
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
@@ -4065,7 +4112,7 @@
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4087,8 +4134,8 @@
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -4109,8 +4156,8 @@
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
@@ -4141,10 +4188,10 @@
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -4167,8 +4214,8 @@
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
@@ -4191,8 +4238,8 @@
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
@@ -4209,8 +4256,8 @@
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
@@ -4231,8 +4278,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
@@ -4251,8 +4298,8 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -4273,8 +4320,8 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
@@ -4305,10 +4352,10 @@
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -4327,8 +4374,8 @@
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
@@ -4345,8 +4392,8 @@
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
@@ -4371,8 +4418,8 @@
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
@@ -4420,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F2" sqref="F2:N3"/>
     </sheetView>
@@ -4527,10 +4574,10 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4558,8 +4605,8 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
@@ -4581,8 +4628,8 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -4602,8 +4649,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -4623,8 +4670,8 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -4652,8 +4699,8 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
@@ -4681,8 +4728,8 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
@@ -4708,8 +4755,8 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
@@ -4735,8 +4782,8 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
@@ -4754,8 +4801,8 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
@@ -4790,10 +4837,10 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4815,8 +4862,8 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
@@ -4834,8 +4881,8 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -4853,7 +4900,7 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
@@ -4878,7 +4925,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4903,8 +4950,8 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -4926,8 +4973,8 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
@@ -4960,10 +5007,10 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -4989,8 +5036,8 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
@@ -5016,8 +5063,8 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
@@ -5039,8 +5086,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
@@ -5062,8 +5109,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
@@ -5085,8 +5132,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -5108,8 +5155,8 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
@@ -5142,10 +5189,10 @@
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5167,8 +5214,8 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
@@ -5186,8 +5233,8 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
@@ -5217,8 +5264,8 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
@@ -5277,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5367,10 +5414,10 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5396,8 +5443,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
@@ -5417,8 +5464,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
@@ -5436,8 +5483,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -5453,8 +5500,8 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -5480,8 +5527,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
@@ -5507,8 +5554,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
@@ -5532,8 +5579,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
@@ -5557,8 +5604,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
@@ -5574,8 +5621,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
@@ -5606,10 +5653,10 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -5627,8 +5674,8 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
@@ -5644,8 +5691,8 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -5661,7 +5708,7 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
@@ -5682,7 +5729,7 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -5703,8 +5750,8 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -5724,8 +5771,8 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
@@ -5754,10 +5801,10 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5779,8 +5826,8 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
@@ -5802,8 +5849,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
@@ -5819,8 +5866,8 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
@@ -5838,8 +5885,8 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +5902,8 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -5876,8 +5923,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
@@ -5906,10 +5953,10 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5927,8 +5974,8 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
@@ -5944,8 +5991,8 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
@@ -5969,8 +6016,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>

--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课堂记录.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课堂记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="460" windowWidth="26320" windowHeight="15900" activeTab="6"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="26320" windowHeight="15900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PEEP教学特点" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="149">
   <si>
     <t>PEEP correlated to Head Start Outcome Framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,10 +725,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2038,7 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="E44" sqref="E44"/>
@@ -2057,13 +2053,13 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -2074,25 +2070,25 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
         <v>142</v>
-      </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2435,7 +2431,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2456,7 +2452,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2477,7 +2473,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2791,16 +2787,16 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
@@ -2811,34 +2807,34 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
         <v>142</v>
       </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
-      </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -3684,7 +3680,7 @@
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2:M3"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3697,16 +3693,16 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -3717,28 +3713,28 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
         <v>142</v>
       </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
-      </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -4268,7 +4264,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -4294,7 +4290,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -4413,7 +4409,7 @@
         <v>114</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M35" s="9"/>
     </row>
@@ -4467,9 +4463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2:N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4483,16 +4479,16 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -4503,31 +4499,31 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
         <v>142</v>
       </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
-      </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -4553,7 +4549,7 @@
         <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N4" t="s">
         <v>121</v>
@@ -4663,9 +4659,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
@@ -4816,7 +4810,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -4857,7 +4851,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N17" s="9"/>
     </row>
@@ -5058,7 +5052,7 @@
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N26" s="9"/>
     </row>
@@ -5257,10 +5251,10 @@
         <v>114</v>
       </c>
       <c r="M35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
@@ -5317,6 +5311,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5324,8 +5319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5338,13 +5333,13 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -5355,25 +5350,25 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
         <v>142</v>
-      </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -5517,7 +5512,7 @@
         <v>112</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5743,7 +5738,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -5844,7 +5839,7 @@
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" s="9"/>
     </row>

--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课堂记录.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课堂记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="26320" windowHeight="15900" activeTab="5"/>
+    <workbookView xWindow="30120" yWindow="540" windowWidth="31760" windowHeight="19420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PEEP教学特点" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="149">
   <si>
     <t>PEEP correlated to Head Start Outcome Framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,18 +685,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>section 4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总结</t>
     <rPh sb="0" eb="1">
       <t>zong jie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sectoin 4.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,6 +845,14 @@
       </rPr>
       <t>下</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sectoin 4.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2053,13 +2053,13 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -2070,25 +2070,25 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
         <v>140</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2431,7 +2431,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2452,7 +2452,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2473,7 +2473,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2770,11 +2770,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O36"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2785,21 +2785,21 @@
     <col min="5" max="5" width="84.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>90</v>
       </c>
@@ -2807,37 +2807,34 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
         <v>140</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" t="s">
         <v>140</v>
       </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>97</v>
       </c>
@@ -2860,16 +2857,13 @@
         <v>103</v>
       </c>
       <c r="M4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" t="s">
         <v>120</v>
       </c>
-      <c r="N4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2883,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
@@ -2913,9 +2907,8 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
@@ -2937,9 +2930,8 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
@@ -2959,9 +2951,8 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
@@ -2979,9 +2970,8 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="13" t="s">
         <v>53</v>
@@ -3009,9 +2999,8 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
@@ -3039,9 +3028,8 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
@@ -3067,9 +3055,8 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
@@ -3095,9 +3082,8 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
@@ -3115,9 +3101,8 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
@@ -3137,9 +3122,8 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
@@ -3153,9 +3137,8 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -3178,12 +3161,9 @@
       <c r="M17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
@@ -3201,9 +3181,8 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
@@ -3221,9 +3200,8 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="2:15" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -3245,9 +3223,8 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
@@ -3268,14 +3245,11 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="13" t="s">
         <v>20</v>
@@ -3297,9 +3271,8 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
@@ -3317,9 +3290,8 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
@@ -3333,9 +3305,8 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
@@ -3360,14 +3331,11 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
@@ -3390,14 +3358,11 @@
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
@@ -3414,16 +3379,13 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="O27" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
@@ -3443,9 +3405,8 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
@@ -3462,14 +3423,11 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="13" t="s">
         <v>30</v>
@@ -3491,9 +3449,8 @@
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
@@ -3511,9 +3468,8 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -3527,9 +3483,8 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3550,14 +3505,11 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
@@ -3576,12 +3528,9 @@
       <c r="M34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
@@ -3607,9 +3556,8 @@
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
@@ -3620,7 +3568,6 @@
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3646,27 +3593,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M36">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",M6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",M6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N36">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",N6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O36">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",O6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3693,16 +3632,16 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -3713,28 +3652,28 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
         <v>140</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -3760,7 +3699,7 @@
         <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -4264,13 +4203,13 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
@@ -4290,7 +4229,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -4409,7 +4348,7 @@
         <v>114</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M35" s="9"/>
     </row>
@@ -4463,9 +4402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4479,16 +4418,16 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -4499,31 +4438,31 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
         <v>140</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" t="s">
         <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -4549,10 +4488,10 @@
         <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -4611,7 +4550,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -4675,13 +4614,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -4708,7 +4647,7 @@
         <v>112</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>104</v>
@@ -4810,7 +4749,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -4851,7 +4790,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N17" s="9"/>
     </row>
@@ -4933,7 +4872,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -5020,7 +4959,7 @@
         <v>114</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -5052,7 +4991,7 @@
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N26" s="9"/>
     </row>
@@ -5203,7 +5142,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="N33" s="9"/>
     </row>
@@ -5251,10 +5190,10 @@
         <v>114</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
@@ -5333,13 +5272,13 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -5350,25 +5289,25 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
         <v>140</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -5512,7 +5451,7 @@
         <v>112</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5738,7 +5677,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -5839,7 +5778,7 @@
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L26" s="9"/>
     </row>
